--- a/medicine/Enfance/Accueil_séquentiel/Accueil_séquentiel.xlsx
+++ b/medicine/Enfance/Accueil_séquentiel/Accueil_séquentiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accueil_s%C3%A9quentiel</t>
+          <t>Accueil_séquentiel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’accueil séquentiel est un dispositif français de l'aide sociale à l'enfance (ASE). C'est un moyen de prise en charge de l'enfant dans le cadre de la protection de l'enfance. Il trouve sa légitimité dans les textes réglementaires tels que la loi du 2 janvier 2002 rénovant l'action sociale et médico-sociale[1] et la loi du 5 mars 2007 réformant la protection de l'enfance[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’accueil séquentiel est un dispositif français de l'aide sociale à l'enfance (ASE). C'est un moyen de prise en charge de l'enfant dans le cadre de la protection de l'enfance. Il trouve sa légitimité dans les textes réglementaires tels que la loi du 2 janvier 2002 rénovant l'action sociale et médico-sociale et la loi du 5 mars 2007 réformant la protection de l'enfance.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Accueil_s%C3%A9quentiel</t>
+          <t>Accueil_séquentiel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Objectif général</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aider à la réinsertion de l'enfant dans sa famille après le placement en travaillant sur le lien parental maintenu pendant le placement.  
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Accueil_s%C3%A9quentiel</t>
+          <t>Accueil_séquentiel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Objectifs spécifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Former à maintenir le lien parents/enfants dans le cadre d’un placement.
 Prendre en considération les parents dans leurs difficultés éducatives.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Accueil_s%C3%A9quentiel</t>
+          <t>Accueil_séquentiel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Accueil séquentiel et Childhood Links</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet Childhood Links a pour but de transférer une méthode de formation des travailleurs sociaux sur le thème des accueils séquentiels aux pays européens qui s'unissent à idée de l’intérêt de maintenir les liens familiaux lors de placements.
 </t>
